--- a/qPCR/IL1B and HSPA5.xlsx
+++ b/qPCR/IL1B and HSPA5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/spet4768_ox_ac_uk/Documents/Desktop/Results/HNM/qPCR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="201" documentId="14_{356FDF62-5703-478C-8C2C-57836FCBBFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34E16D31-222E-4B67-9AF2-24BB9CC20A8B}"/>
+  <xr:revisionPtr revIDLastSave="236" documentId="14_{356FDF62-5703-478C-8C2C-57836FCBBFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86D4613A-7216-463E-A443-08F7F4C8BA48}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1140" yWindow="-225" windowWidth="19035" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="10110" yWindow="690" windowWidth="19035" windowHeight="14880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -12184,8 +12184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13033,7 +13033,7 @@
         <f>Results!D77</f>
         <v>36.392120361328125</v>
       </c>
-      <c r="C37" s="18"/>
+      <c r="C37" s="3"/>
       <c r="G37" t="str">
         <f>(Results!C77)</f>
         <v>IL1B</v>
@@ -13325,21 +13325,18 @@
         <f>Results!D90</f>
         <v>Undetermined</v>
       </c>
-      <c r="C50" s="3">
-        <f t="shared" si="0"/>
-        <v>40.1</v>
-      </c>
+      <c r="C50" s="3"/>
       <c r="D50" s="4" t="str">
         <f>(Results!F90)</f>
         <v>HC2</v>
       </c>
       <c r="E50" s="5">
         <f>AVERAGE(C50:C52)</f>
-        <v>39.681234741210936</v>
+        <v>38.843704223632813</v>
       </c>
       <c r="F50">
         <f>_xlfn.STDEV.P(C50:C52)</f>
-        <v>0.5922235084301718</v>
+        <v>0</v>
       </c>
       <c r="G50" t="str">
         <f>(Results!C90)</f>
@@ -13359,10 +13356,7 @@
         <f>Results!D91</f>
         <v>Undetermined</v>
       </c>
-      <c r="C51" s="3">
-        <f t="shared" si="0"/>
-        <v>40.1</v>
-      </c>
+      <c r="C51" s="3"/>
       <c r="G51" t="str">
         <f>(Results!C91)</f>
         <v>IL1B</v>
@@ -13870,21 +13864,18 @@
         <f>Results!D114</f>
         <v>37.452339172363281</v>
       </c>
-      <c r="C74" s="3">
-        <f t="shared" si="1"/>
-        <v>37.452339172363281</v>
-      </c>
+      <c r="C74" s="3"/>
       <c r="D74" s="4" t="str">
         <f>(Results!F114)</f>
         <v>HP3</v>
       </c>
       <c r="E74" s="5">
         <f>AVERAGE(C74:C76)</f>
-        <v>38.683676401774086</v>
+        <v>39.299345016479492</v>
       </c>
       <c r="F74">
         <f>_xlfn.STDEV.P(C74:C76)</f>
-        <v>0.91196353872884117</v>
+        <v>0.33222389221191406</v>
       </c>
       <c r="G74" t="str">
         <f>(Results!C114)</f>
@@ -13950,11 +13941,11 @@
       </c>
       <c r="E77" s="5">
         <f>AVERAGE(C77:C79)</f>
-        <v>37.524340311686196</v>
+        <v>38.208646774291992</v>
       </c>
       <c r="F77">
         <f>_xlfn.STDEV.P(C77:C79)</f>
-        <v>1.0541610197552158</v>
+        <v>0.51191520690917969</v>
       </c>
       <c r="G77" t="str">
         <f>(Results!C117)</f>
@@ -13992,10 +13983,7 @@
         <f>Results!D119</f>
         <v>36.155727386474609</v>
       </c>
-      <c r="C79" s="3">
-        <f t="shared" si="1"/>
-        <v>36.155727386474609</v>
-      </c>
+      <c r="C79" s="3"/>
       <c r="G79" t="str">
         <f>(Results!C119)</f>
         <v>IL1B</v>
@@ -14087,11 +14075,11 @@
       </c>
       <c r="E83" s="5">
         <f>AVERAGE(C83:C85)</f>
-        <v>37.924218495686851</v>
+        <v>37.499725341796875</v>
       </c>
       <c r="F83">
         <f>_xlfn.STDEV.P(C83:C85)</f>
-        <v>0.79005853623165889</v>
+        <v>0.62905120849609375</v>
       </c>
       <c r="G83" t="str">
         <f>(Results!C123)</f>
@@ -14111,10 +14099,7 @@
         <f>Results!D124</f>
         <v>38.773204803466797</v>
       </c>
-      <c r="C84" s="3">
-        <f t="shared" si="1"/>
-        <v>38.773204803466797</v>
-      </c>
+      <c r="C84" s="3"/>
       <c r="G84" t="str">
         <f>(Results!C124)</f>
         <v>IL1B</v>
@@ -14288,11 +14273,11 @@
       </c>
       <c r="E92" s="5">
         <f>AVERAGE(C92:C94)</f>
-        <v>38.237097422281899</v>
+        <v>38.771331787109375</v>
       </c>
       <c r="F92">
         <f>_xlfn.STDEV.P(C92:C94)</f>
-        <v>0.75552972578685973</v>
+        <v>4.322052001953125E-3</v>
       </c>
       <c r="G92" t="str">
         <f>(Results!C132)</f>
@@ -14330,10 +14315,7 @@
         <f>Results!D134</f>
         <v>37.168628692626953</v>
       </c>
-      <c r="C94" s="3">
-        <f t="shared" si="1"/>
-        <v>37.168628692626953</v>
-      </c>
+      <c r="C94" s="3"/>
       <c r="G94" t="str">
         <f>(Results!C134)</f>
         <v>IL1B</v>
@@ -14625,21 +14607,18 @@
         <f>Results!D147</f>
         <v>39.0316162109375</v>
       </c>
-      <c r="C107" s="3">
-        <f t="shared" si="1"/>
-        <v>39.0316162109375</v>
-      </c>
+      <c r="C107" s="3"/>
       <c r="D107" s="4" t="str">
         <f>(Results!F147)</f>
         <v>HO5</v>
       </c>
       <c r="E107" s="5">
         <f>AVERAGE(C107:C109)</f>
-        <v>37.054449717203774</v>
+        <v>36.065866470336914</v>
       </c>
       <c r="F107">
         <f>_xlfn.STDEV.P(C107:C109)</f>
-        <v>1.4048842884195465</v>
+        <v>0.16929054260253906</v>
       </c>
       <c r="G107" t="str">
         <f>(Results!C147)</f>
@@ -14705,11 +14684,11 @@
       </c>
       <c r="E110" s="5">
         <f>AVERAGE(C110:C112)</f>
-        <v>36.610388437906899</v>
+        <v>36.10212516784668</v>
       </c>
       <c r="F110">
         <f>_xlfn.STDEV.P(C110:C112)</f>
-        <v>0.72490707448804614</v>
+        <v>0.11506843566894531</v>
       </c>
       <c r="G110" t="str">
         <f>(Results!C150)</f>
@@ -14729,10 +14708,7 @@
         <f>Results!D151</f>
         <v>37.626914978027344</v>
       </c>
-      <c r="C111" s="3">
-        <f t="shared" si="1"/>
-        <v>37.626914978027344</v>
-      </c>
+      <c r="C111" s="3"/>
       <c r="G111" t="str">
         <f>(Results!C151)</f>
         <v>IL1B</v>
@@ -14765,21 +14741,18 @@
         <f>Results!D153</f>
         <v>38.735084533691406</v>
       </c>
-      <c r="C113" s="3">
-        <f t="shared" si="1"/>
-        <v>38.735084533691406</v>
-      </c>
+      <c r="C113" s="3"/>
       <c r="D113" s="4" t="str">
         <f>(Results!F153)</f>
         <v>LC6</v>
       </c>
       <c r="E113" s="5">
         <f>AVERAGE(C113:C115)</f>
-        <v>37.759927113850914</v>
+        <v>37.272348403930664</v>
       </c>
       <c r="F113">
         <f>_xlfn.STDEV.P(C113:C115)</f>
-        <v>0.76593156808022755</v>
+        <v>0.40838432312011719</v>
       </c>
       <c r="G113" t="str">
         <f>(Results!C153)</f>
@@ -14845,11 +14818,11 @@
       </c>
       <c r="E116" s="5">
         <f>AVERAGE(C116:C118)</f>
-        <v>38.073576609293617</v>
+        <v>38.645069122314453</v>
       </c>
       <c r="F116">
         <f>_xlfn.STDEV.P(C116:C118)</f>
-        <v>0.80848505898411849</v>
+        <v>2.57110595703125E-2</v>
       </c>
       <c r="G116" t="str">
         <f>(Results!C156)</f>
@@ -14887,10 +14860,7 @@
         <f>Results!D158</f>
         <v>36.930591583251953</v>
       </c>
-      <c r="C118" s="3">
-        <f t="shared" si="1"/>
-        <v>36.930591583251953</v>
-      </c>
+      <c r="C118" s="3"/>
       <c r="G118" t="str">
         <f>(Results!C158)</f>
         <v>IL1B</v>
@@ -14905,21 +14875,18 @@
         <f>Results!D159</f>
         <v>38.156982421875</v>
       </c>
-      <c r="C119" s="3">
-        <f t="shared" si="1"/>
-        <v>38.156982421875</v>
-      </c>
+      <c r="C119" s="3"/>
       <c r="D119" s="4" t="str">
         <f>(Results!F159)</f>
         <v>LP6</v>
       </c>
       <c r="E119" s="5">
         <f>AVERAGE(C119:C121)</f>
-        <v>37.022767384847008</v>
+        <v>36.455659866333008</v>
       </c>
       <c r="F119">
         <f>_xlfn.STDEV.P(C119:C121)</f>
-        <v>0.80461088720665563</v>
+        <v>7.9153060913085938E-2</v>
       </c>
       <c r="G119" t="str">
         <f>(Results!C159)</f>
@@ -14985,11 +14952,11 @@
       </c>
       <c r="E122" s="5">
         <f>AVERAGE(C122:C124)</f>
-        <v>38.009109497070313</v>
+        <v>38.894309997558594</v>
       </c>
       <c r="F122">
         <f>_xlfn.STDEV.P(C122:C124)</f>
-        <v>1.2524702575285658</v>
+        <v>4.7779083251953125E-2</v>
       </c>
       <c r="G122" t="str">
         <f>(Results!C162)</f>
@@ -15027,10 +14994,7 @@
         <f>Results!D164</f>
         <v>36.23870849609375</v>
       </c>
-      <c r="C124" s="3">
-        <f t="shared" si="1"/>
-        <v>36.23870849609375</v>
-      </c>
+      <c r="C124" s="3"/>
       <c r="G124" t="str">
         <f>(Results!C164)</f>
         <v>IL1B</v>
@@ -15055,11 +15019,11 @@
       </c>
       <c r="E125" s="5">
         <f>AVERAGE(C125:C127)</f>
-        <v>36.545322418212891</v>
+        <v>35.941329956054688</v>
       </c>
       <c r="F125">
         <f>_xlfn.STDEV.P(C125:C127)</f>
-        <v>0.85421869290299313</v>
+        <v>1.0662078857421875E-2</v>
       </c>
       <c r="G125" t="str">
         <f>(Results!C165)</f>
@@ -15079,10 +15043,7 @@
         <f>Results!D166</f>
         <v>37.753307342529297</v>
       </c>
-      <c r="C126" s="3">
-        <f t="shared" si="1"/>
-        <v>37.753307342529297</v>
-      </c>
+      <c r="C126" s="3"/>
       <c r="G126" t="str">
         <f>(Results!C166)</f>
         <v>IL1B</v>
@@ -15186,7 +15147,7 @@
         <v>38.616649627685547</v>
       </c>
       <c r="C131" s="3">
-        <f t="shared" si="2"/>
+        <f>IF(B131="Undetermined",40.1,B131)</f>
         <v>38.616649627685547</v>
       </c>
       <c r="D131" s="4" t="str">
@@ -15195,11 +15156,11 @@
       </c>
       <c r="E131" s="5">
         <f>AVERAGE(C131:C133)</f>
-        <v>38.230979919433594</v>
+        <v>38.606678009033203</v>
       </c>
       <c r="F131">
         <f>_xlfn.STDEV.P(C131:C133)</f>
-        <v>0.53137971154654629</v>
+        <v>9.97161865234375E-3</v>
       </c>
       <c r="G131" t="str">
         <f>(Results!C171)</f>
@@ -15237,10 +15198,7 @@
         <f>Results!D173</f>
         <v>37.479583740234375</v>
       </c>
-      <c r="C133" s="3">
-        <f t="shared" si="2"/>
-        <v>37.479583740234375</v>
-      </c>
+      <c r="C133" s="3"/>
       <c r="G133" t="str">
         <f>(Results!C173)</f>
         <v>IL1B</v>
@@ -15262,11 +15220,11 @@
       </c>
       <c r="E134" s="5">
         <f>AVERAGE(C134:C136)</f>
-        <v>38.833163070678708</v>
+        <v>37.566326141357422</v>
       </c>
       <c r="F134">
         <f>_xlfn.STDEV.P(C134:C136)</f>
-        <v>1.2668369293212898</v>
+        <v>0</v>
       </c>
       <c r="G134" t="str">
         <f>(Results!C174)</f>
@@ -15304,10 +15262,7 @@
         <f>Results!D176</f>
         <v>Undetermined</v>
       </c>
-      <c r="C136" s="3">
-        <f t="shared" si="2"/>
-        <v>40.1</v>
-      </c>
+      <c r="C136" s="3"/>
       <c r="G136" t="str">
         <f>(Results!C176)</f>
         <v>IL1B</v>
@@ -15529,21 +15484,18 @@
         <f>Results!D186</f>
         <v>38.773593902587891</v>
       </c>
-      <c r="C146" s="3">
-        <f t="shared" si="2"/>
-        <v>38.773593902587891</v>
-      </c>
+      <c r="C146" s="3"/>
       <c r="D146" s="4" t="str">
         <f>(Results!F186)</f>
         <v>LPS6</v>
       </c>
       <c r="E146" s="5">
         <f>AVERAGE(C146:C148)</f>
-        <v>38.061458587646484</v>
+        <v>37.705390930175781</v>
       </c>
       <c r="F146">
         <f>_xlfn.STDEV.P(C146:C148)</f>
-        <v>0.50630333921519699</v>
+        <v>6.451416015625E-2</v>
       </c>
       <c r="G146" t="str">
         <f>(Results!C186)</f>
@@ -19956,7 +19908,7 @@
         <v>Undetermined</v>
       </c>
       <c r="C336" s="3">
-        <f t="shared" ref="C332:C337" si="6">IF(B336="Undetermined",40.1,B336)</f>
+        <f t="shared" ref="C336:C337" si="6">IF(B336="Undetermined",40.1,B336)</f>
         <v>40.1</v>
       </c>
       <c r="G336" t="str">
@@ -20027,15 +19979,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39:G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" customWidth="1"/>
+    <col min="7" max="7" width="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -20643,7 +20595,6 @@
         <v>430</v>
       </c>
       <c r="C46" s="7">
-        <f>INDEX('Results Workspace'!E:E,MATCH(A46,'Results Workspace'!H:H,0))</f>
         <v>40.1</v>
       </c>
       <c r="D46" s="11">
@@ -20658,10 +20609,7 @@
         <f t="shared" si="6"/>
         <v>0.11892561913077176</v>
       </c>
-      <c r="G46" s="11">
-        <f>F46/'Housekeeper deltaCT'!E9</f>
-        <v>23.494347390958815</v>
-      </c>
+      <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="str">
@@ -20687,10 +20635,7 @@
         <f t="shared" si="6"/>
         <v>0.11892561913077176</v>
       </c>
-      <c r="G47" s="11">
-        <f>F47/'Housekeeper deltaCT'!E10</f>
-        <v>21.725247697722381</v>
-      </c>
+      <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="str">
@@ -20702,19 +20647,19 @@
       </c>
       <c r="C48" s="7">
         <f>INDEX('Results Workspace'!E:E,MATCH(A48,'Results Workspace'!H:H,0))</f>
-        <v>39.681234741210936</v>
+        <v>38.843704223632813</v>
       </c>
       <c r="D48" s="11">
         <f>INDEX('Results Workspace'!F:F,MATCH(A48,'Results Workspace'!H:H,0))</f>
-        <v>0.5922235084301718</v>
+        <v>0</v>
       </c>
       <c r="E48" s="15">
         <f t="shared" si="7"/>
-        <v>1.4924523198244086E-2</v>
+        <v>0</v>
       </c>
       <c r="F48" s="11">
         <f t="shared" si="6"/>
-        <v>0.16150847586612174</v>
+        <v>0.29787572626072734</v>
       </c>
       <c r="G48" s="11"/>
     </row>
@@ -20887,10 +20832,7 @@
         <f t="shared" si="6"/>
         <v>0.11892561913077176</v>
       </c>
-      <c r="G54" s="11">
-        <f>F54/'Housekeeper deltaCT'!E17</f>
-        <v>3.6333870257141134</v>
-      </c>
+      <c r="G54" s="11"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="str">
@@ -20931,23 +20873,23 @@
       </c>
       <c r="C56" s="7">
         <f>INDEX('Results Workspace'!E:E,MATCH(A56,'Results Workspace'!H:H,0))</f>
-        <v>38.683676401774086</v>
+        <v>39.299345016479492</v>
       </c>
       <c r="D56" s="11">
         <f>INDEX('Results Workspace'!F:F,MATCH(A56,'Results Workspace'!H:H,0))</f>
-        <v>0.91196353872884117</v>
+        <v>0.33222389221191406</v>
       </c>
       <c r="E56" s="15">
         <f t="shared" si="7"/>
-        <v>2.3574893173468312E-2</v>
+        <v>8.4536750440141386E-3</v>
       </c>
       <c r="F56" s="11">
         <f t="shared" si="6"/>
-        <v>0.33483388258847124</v>
+        <v>0.21350624717424596</v>
       </c>
       <c r="G56" s="11">
         <f>F56/'Housekeeper deltaCT'!E19</f>
-        <v>4.1088535156291766</v>
+        <v>2.6200033507030085</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -20960,23 +20902,23 @@
       </c>
       <c r="C57" s="7">
         <f>INDEX('Results Workspace'!E:E,MATCH(A57,'Results Workspace'!H:H,0))</f>
-        <v>37.524340311686196</v>
+        <v>38.208646774291992</v>
       </c>
       <c r="D57" s="11">
         <f>INDEX('Results Workspace'!F:F,MATCH(A57,'Results Workspace'!H:H,0))</f>
-        <v>1.0541610197552158</v>
+        <v>0.51191520690917969</v>
       </c>
       <c r="E57" s="15">
         <f t="shared" si="7"/>
-        <v>2.8092726241130447E-2</v>
+        <v>1.339788896301904E-2</v>
       </c>
       <c r="F57" s="11">
         <f t="shared" si="6"/>
-        <v>0.78129169277597965</v>
+        <v>0.47381425029890673</v>
       </c>
       <c r="G57" s="11">
         <f>F57/'Housekeeper deltaCT'!E20</f>
-        <v>2.3263007174209456</v>
+        <v>1.410784781901756</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -21018,23 +20960,23 @@
       </c>
       <c r="C59" s="7">
         <f>INDEX('Results Workspace'!E:E,MATCH(A59,'Results Workspace'!H:H,0))</f>
-        <v>37.924218495686851</v>
+        <v>37.499725341796875</v>
       </c>
       <c r="D59" s="11">
         <f>INDEX('Results Workspace'!F:F,MATCH(A59,'Results Workspace'!H:H,0))</f>
-        <v>0.79005853623165889</v>
+        <v>0.62905120849609375</v>
       </c>
       <c r="E59" s="15">
         <f t="shared" si="7"/>
-        <v>2.0832559445398007E-2</v>
+        <v>1.6774821755693198E-2</v>
       </c>
       <c r="F59" s="11">
         <f t="shared" si="6"/>
-        <v>0.58329497898043303</v>
+        <v>0.79547442560094384</v>
       </c>
       <c r="G59" s="11">
         <f>F59/'Housekeeper deltaCT'!E22</f>
-        <v>3.7835695201251558</v>
+        <v>5.1598811908232802</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -21105,23 +21047,23 @@
       </c>
       <c r="C62" s="7">
         <f>INDEX('Results Workspace'!E:E,MATCH(A62,'Results Workspace'!H:H,0))</f>
-        <v>38.237097422281899</v>
+        <v>38.771331787109375</v>
       </c>
       <c r="D62" s="11">
         <f>INDEX('Results Workspace'!F:F,MATCH(A62,'Results Workspace'!H:H,0))</f>
-        <v>0.75552972578685973</v>
+        <v>4.322052001953125E-3</v>
       </c>
       <c r="E62" s="15">
         <f t="shared" si="7"/>
-        <v>1.9759076308616196E-2</v>
+        <v>1.1147545886958965E-4</v>
       </c>
       <c r="F62" s="11">
         <f t="shared" si="6"/>
-        <v>0.46406372755564307</v>
+        <v>0.31405577447943356</v>
       </c>
       <c r="G62" s="11">
         <f>F62/'Housekeeper deltaCT'!E25</f>
-        <v>1.9602437501695589</v>
+        <v>1.326597690301391</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -21250,23 +21192,23 @@
       </c>
       <c r="C67" s="7">
         <f>INDEX('Results Workspace'!E:E,MATCH(A67,'Results Workspace'!H:H,0))</f>
-        <v>37.054449717203774</v>
+        <v>36.065866470336914</v>
       </c>
       <c r="D67" s="11">
         <f>INDEX('Results Workspace'!F:F,MATCH(A67,'Results Workspace'!H:H,0))</f>
-        <v>1.4048842884195465</v>
+        <v>0.16929054260253906</v>
       </c>
       <c r="E67" s="15">
         <f t="shared" si="8"/>
-        <v>3.7914050785843458E-2</v>
+        <v>4.6939269500644171E-3</v>
       </c>
       <c r="F67" s="11">
         <f t="shared" si="9"/>
-        <v>1.1014397617753384</v>
+        <v>2.2685379790052149</v>
       </c>
       <c r="G67" s="11">
         <f>F67/'Housekeeper deltaCT'!E30</f>
-        <v>1.0752051986983291</v>
+        <v>2.2145049716922443</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -21279,23 +21221,23 @@
       </c>
       <c r="C68" s="7">
         <f>INDEX('Results Workspace'!E:E,MATCH(A68,'Results Workspace'!H:H,0))</f>
-        <v>36.610388437906899</v>
+        <v>36.10212516784668</v>
       </c>
       <c r="D68" s="11">
         <f>INDEX('Results Workspace'!F:F,MATCH(A68,'Results Workspace'!H:H,0))</f>
-        <v>0.72490707448804614</v>
+        <v>0.11506843566894531</v>
       </c>
       <c r="E68" s="15">
         <f t="shared" si="8"/>
-        <v>1.9800584080595752E-2</v>
+        <v>3.1873036596590082E-3</v>
       </c>
       <c r="F68" s="11">
         <f t="shared" si="9"/>
-        <v>1.5237363735286067</v>
+        <v>2.2092110888802465</v>
       </c>
       <c r="G68" s="11">
         <f>F68/'Housekeeper deltaCT'!E31</f>
-        <v>1.732413066383184</v>
+        <v>2.5117639922920088</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -21308,23 +21250,23 @@
       </c>
       <c r="C69" s="7">
         <f>INDEX('Results Workspace'!E:E,MATCH(A69,'Results Workspace'!H:H,0))</f>
-        <v>37.759927113850914</v>
+        <v>37.272348403930664</v>
       </c>
       <c r="D69" s="11">
         <f>INDEX('Results Workspace'!F:F,MATCH(A69,'Results Workspace'!H:H,0))</f>
-        <v>0.76593156808022755</v>
+        <v>0.40838432312011719</v>
       </c>
       <c r="E69" s="15">
         <f t="shared" si="8"/>
-        <v>2.0284243816754408E-2</v>
+        <v>1.0956763944529178E-2</v>
       </c>
       <c r="F69" s="11">
         <f t="shared" si="9"/>
-        <v>0.65771207509406249</v>
+        <v>0.93928573678411786</v>
       </c>
       <c r="G69" s="11">
         <f>F69/'Housekeeper deltaCT'!E32</f>
-        <v>0.80602819489584476</v>
+        <v>1.1510975935833945</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -21337,23 +21279,23 @@
       </c>
       <c r="C70" s="7">
         <f>INDEX('Results Workspace'!E:E,MATCH(A70,'Results Workspace'!H:H,0))</f>
-        <v>38.073576609293617</v>
+        <v>38.645069122314453</v>
       </c>
       <c r="D70" s="11">
         <f>INDEX('Results Workspace'!F:F,MATCH(A70,'Results Workspace'!H:H,0))</f>
-        <v>0.80848505898411849</v>
+        <v>2.57110595703125E-2</v>
       </c>
       <c r="E70" s="15">
         <f t="shared" si="8"/>
-        <v>2.1234807207126696E-2</v>
+        <v>6.653128110325053E-4</v>
       </c>
       <c r="F70" s="11">
         <f t="shared" si="9"/>
-        <v>0.5229746233479966</v>
+        <v>0.34441630249621585</v>
       </c>
       <c r="G70" s="11">
         <f>F70/'Housekeeper deltaCT'!E33</f>
-        <v>0.61923049407346098</v>
+        <v>0.40780769781208032</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -21366,23 +21308,23 @@
       </c>
       <c r="C71" s="7">
         <f>INDEX('Results Workspace'!E:E,MATCH(A71,'Results Workspace'!H:H,0))</f>
-        <v>37.022767384847008</v>
+        <v>36.455659866333008</v>
       </c>
       <c r="D71" s="11">
         <f>INDEX('Results Workspace'!F:F,MATCH(A71,'Results Workspace'!H:H,0))</f>
-        <v>0.80461088720665563</v>
+        <v>7.9153060913085938E-2</v>
       </c>
       <c r="E71" s="15">
         <f t="shared" si="8"/>
-        <v>2.1732867206895334E-2</v>
+        <v>2.1712145988662846E-3</v>
       </c>
       <c r="F71" s="11">
         <f t="shared" si="9"/>
-        <v>1.1272416072806442</v>
+        <v>1.7061691664172807</v>
       </c>
       <c r="G71" s="11">
         <f>F71/'Housekeeper deltaCT'!E34</f>
-        <v>1.4302865396365907</v>
+        <v>2.1648515964174004</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -21395,23 +21337,23 @@
       </c>
       <c r="C72" s="7">
         <f>INDEX('Results Workspace'!E:E,MATCH(A72,'Results Workspace'!H:H,0))</f>
-        <v>38.009109497070313</v>
+        <v>38.894309997558594</v>
       </c>
       <c r="D72" s="11">
         <f>INDEX('Results Workspace'!F:F,MATCH(A72,'Results Workspace'!H:H,0))</f>
-        <v>1.2524702575285658</v>
+        <v>4.7779083251953125E-2</v>
       </c>
       <c r="E72" s="15">
         <f t="shared" si="8"/>
-        <v>3.2951844284199935E-2</v>
+        <v>1.2284337543191338E-3</v>
       </c>
       <c r="F72" s="11">
         <f t="shared" si="9"/>
-        <v>0.54820508918281552</v>
+        <v>0.28705980256368363</v>
       </c>
       <c r="G72" s="11">
         <f>F72/'Housekeeper deltaCT'!E35</f>
-        <v>0.86379205826553696</v>
+        <v>0.45231243305567564</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -21424,23 +21366,23 @@
       </c>
       <c r="C73" s="7">
         <f>INDEX('Results Workspace'!E:E,MATCH(A73,'Results Workspace'!H:H,0))</f>
-        <v>36.545322418212891</v>
+        <v>35.941329956054688</v>
       </c>
       <c r="D73" s="11">
         <f>INDEX('Results Workspace'!F:F,MATCH(A73,'Results Workspace'!H:H,0))</f>
-        <v>0.85421869290299313</v>
+        <v>1.0662078857421875E-2</v>
       </c>
       <c r="E73" s="15">
         <f t="shared" si="8"/>
-        <v>2.3374227845840017E-2</v>
+        <v>2.9665231838828319E-4</v>
       </c>
       <c r="F73" s="11">
         <f t="shared" si="9"/>
-        <v>1.5979470364145865</v>
+        <v>2.4847063823178428</v>
       </c>
       <c r="G73" s="11">
         <f>F73/'Housekeeper deltaCT'!E36</f>
-        <v>1.8090739392370505</v>
+        <v>2.8129953374380494</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -21482,23 +21424,23 @@
       </c>
       <c r="C75" s="7">
         <f>INDEX('Results Workspace'!E:E,MATCH(A75,'Results Workspace'!H:H,0))</f>
-        <v>38.230979919433594</v>
+        <v>38.606678009033203</v>
       </c>
       <c r="D75" s="11">
         <f>INDEX('Results Workspace'!F:F,MATCH(A75,'Results Workspace'!H:H,0))</f>
-        <v>0.53137971154654629</v>
+        <v>9.97161865234375E-3</v>
       </c>
       <c r="E75" s="15">
         <f t="shared" si="8"/>
-        <v>1.3899191510820653E-2</v>
+        <v>2.5828740431928866E-4</v>
       </c>
       <c r="F75" s="11">
         <f t="shared" si="9"/>
-        <v>0.46614322352908455</v>
+        <v>0.35421698992850731</v>
       </c>
       <c r="G75" s="11">
         <f>F75/'Housekeeper deltaCT'!E38</f>
-        <v>0.44062633611842106</v>
+        <v>0.33482699433333185</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -21511,23 +21453,23 @@
       </c>
       <c r="C76" s="7">
         <f>INDEX('Results Workspace'!E:E,MATCH(A76,'Results Workspace'!H:H,0))</f>
-        <v>38.833163070678708</v>
+        <v>37.566326141357422</v>
       </c>
       <c r="D76" s="11">
         <f>INDEX('Results Workspace'!F:F,MATCH(A76,'Results Workspace'!H:H,0))</f>
-        <v>1.2668369293212898</v>
+        <v>0</v>
       </c>
       <c r="E76" s="15">
         <f t="shared" si="8"/>
-        <v>3.2622553228939137E-2</v>
+        <v>0</v>
       </c>
       <c r="F76" s="11">
         <f t="shared" si="9"/>
-        <v>0.30017945995520706</v>
+        <v>0.75768121988850845</v>
       </c>
       <c r="G76" s="11">
         <f>F76/'Housekeeper deltaCT'!E39</f>
-        <v>0.92452946554848547</v>
+        <v>2.3335994187749423</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -21627,23 +21569,23 @@
       </c>
       <c r="C80" s="7">
         <f>INDEX('Results Workspace'!E:E,MATCH(A80,'Results Workspace'!H:H,0))</f>
-        <v>38.061458587646484</v>
+        <v>37.705390930175781</v>
       </c>
       <c r="D80" s="11">
         <f>INDEX('Results Workspace'!F:F,MATCH(A80,'Results Workspace'!H:H,0))</f>
-        <v>0.50630333921519699</v>
+        <v>6.451416015625E-2</v>
       </c>
       <c r="E80" s="15">
         <f t="shared" si="8"/>
-        <v>1.330225792711808E-2</v>
+        <v>1.711006266337874E-3</v>
       </c>
       <c r="F80" s="11">
         <f t="shared" si="9"/>
-        <v>0.52762696913620333</v>
+        <v>0.68445688338177968</v>
       </c>
       <c r="G80" s="11">
         <f>F80/'Housekeeper deltaCT'!E43</f>
-        <v>0.88080646300131638</v>
+        <v>1.1426141607495843</v>
       </c>
     </row>
   </sheetData>
@@ -23342,7 +23284,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
